--- a/1222020cw3.xlsx
+++ b/1222020cw3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t>Surname</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>H180596M</t>
-  </si>
-  <si>
-    <t>ABS</t>
   </si>
   <si>
     <t>Chifodya</t>
@@ -2043,11 +2040,11 @@
       <c r="D7" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="E7" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="3">
-        <v>34</v>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -2055,19 +2052,19 @@
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="C8" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="C8" t="s" s="3">
+      <c r="D8" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="3">
         <v>37</v>
-      </c>
-      <c r="D8" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s" s="3">
-        <v>38</v>
       </c>
       <c r="F8" t="s" s="3">
         <v>12</v>
@@ -2078,22 +2075,22 @@
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="C9" t="s" s="3">
         <v>40</v>
       </c>
-      <c r="C9" t="s" s="3">
+      <c r="D9" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="D9" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s" s="3">
+      <c r="F9" t="s" s="3">
         <v>42</v>
-      </c>
-      <c r="F9" t="s" s="3">
-        <v>43</v>
       </c>
       <c r="G9" s="4">
         <v>0.6571428571428571</v>
@@ -2101,22 +2098,22 @@
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C10" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s" s="3">
         <v>45</v>
-      </c>
-      <c r="D10" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s" s="3">
-        <v>46</v>
       </c>
       <c r="G10" s="4">
         <v>0.6571428571428571</v>
@@ -2124,22 +2121,22 @@
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C11" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s" s="3">
         <v>48</v>
-      </c>
-      <c r="D11" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s" s="3">
-        <v>49</v>
       </c>
       <c r="G11" s="4">
         <v>0.6571428571428571</v>
@@ -2147,22 +2144,22 @@
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s" s="3">
         <v>50</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="C12" t="s" s="3">
         <v>51</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="D12" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s" s="3">
         <v>52</v>
       </c>
-      <c r="D12" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s" s="3">
+      <c r="F12" t="s" s="3">
         <v>53</v>
-      </c>
-      <c r="F12" t="s" s="3">
-        <v>54</v>
       </c>
       <c r="G12" s="4">
         <v>0.6571428571428571</v>
@@ -2170,13 +2167,13 @@
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s" s="3">
         <v>21</v>
@@ -2185,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="4">
         <v>0.6571428571428571</v>
@@ -2193,22 +2190,22 @@
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s" s="3">
         <v>14</v>
       </c>
       <c r="C14" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="D14" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s" s="3">
+      <c r="F14" t="s" s="3">
         <v>59</v>
-      </c>
-      <c r="F14" t="s" s="3">
-        <v>60</v>
       </c>
       <c r="G14" s="4">
         <v>0.6571428571428571</v>
@@ -2216,13 +2213,13 @@
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s" s="3">
         <v>14</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s" s="3">
         <v>21</v>
@@ -2231,7 +2228,7 @@
         <v>11</v>
       </c>
       <c r="F15" t="s" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="4">
         <v>0.6571428571428571</v>
@@ -2239,22 +2236,22 @@
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s" s="3">
         <v>28</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s" s="3">
         <v>21</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="4">
         <v>0.6</v>
@@ -2262,19 +2259,19 @@
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="s" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s" s="3">
         <v>14</v>
       </c>
       <c r="C17" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s" s="3">
         <v>66</v>
-      </c>
-      <c r="D17" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s" s="3">
-        <v>67</v>
       </c>
       <c r="F17" t="s" s="3">
         <v>23</v>
@@ -2285,19 +2282,19 @@
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s" s="3">
         <v>68</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="C18" t="s" s="3">
         <v>69</v>
       </c>
-      <c r="C18" t="s" s="3">
+      <c r="D18" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s" s="3">
         <v>70</v>
-      </c>
-      <c r="D18" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s" s="3">
-        <v>71</v>
       </c>
       <c r="F18" t="s" s="3">
         <v>12</v>
@@ -2308,22 +2305,22 @@
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="s" s="3">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="C19" t="s" s="3">
         <v>73</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="D19" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s" s="3">
         <v>74</v>
       </c>
-      <c r="D19" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s" s="3">
+      <c r="F19" t="s" s="3">
         <v>75</v>
-      </c>
-      <c r="F19" t="s" s="3">
-        <v>76</v>
       </c>
       <c r="G19" s="4">
         <v>0.6571428571428571</v>
@@ -2331,13 +2328,13 @@
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="s" s="3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s" s="3">
         <v>21</v>
@@ -2354,22 +2351,22 @@
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="s" s="3">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C21" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s" s="3">
         <v>80</v>
-      </c>
-      <c r="D21" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="F21" t="s" s="3">
-        <v>81</v>
       </c>
       <c r="G21" s="4">
         <v>0.4857142857142857</v>
@@ -2377,22 +2374,22 @@
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s" s="3">
         <v>82</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="C22" t="s" s="3">
         <v>83</v>
       </c>
-      <c r="C22" t="s" s="3">
-        <v>84</v>
-      </c>
       <c r="D22" t="s" s="3">
         <v>21</v>
       </c>
       <c r="E22" t="s" s="3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="4">
         <v>0.4857142857142857</v>
@@ -2400,19 +2397,19 @@
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="s" s="3">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C23" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="3">
         <v>86</v>
-      </c>
-      <c r="D23" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s" s="3">
-        <v>87</v>
       </c>
       <c r="F23" t="s" s="3">
         <v>12</v>
@@ -2423,22 +2420,22 @@
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s" s="3">
         <v>88</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="C24" t="s" s="3">
         <v>89</v>
       </c>
-      <c r="C24" t="s" s="3">
+      <c r="D24" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s" s="3">
         <v>90</v>
       </c>
-      <c r="D24" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s" s="3">
+      <c r="F24" t="s" s="3">
         <v>91</v>
-      </c>
-      <c r="F24" t="s" s="3">
-        <v>92</v>
       </c>
       <c r="G24" s="4">
         <v>0.6571428571428571</v>
@@ -2446,19 +2443,19 @@
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s" s="3">
         <v>93</v>
       </c>
-      <c r="B25" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s" s="3">
-        <v>94</v>
-      </c>
       <c r="D25" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E25" t="s" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s" s="3">
         <v>23</v>
@@ -2469,22 +2466,22 @@
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s" s="3">
         <v>95</v>
       </c>
-      <c r="B26" t="s" s="3">
+      <c r="C26" t="s" s="3">
         <v>96</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="D26" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s" s="3">
         <v>97</v>
       </c>
-      <c r="D26" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s" s="3">
-        <v>98</v>
-      </c>
       <c r="F26" t="s" s="3">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="4">
         <v>0.6571428571428571</v>
@@ -2492,13 +2489,13 @@
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="s" s="3">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s" s="3">
         <v>19</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s" s="3">
         <v>10</v>
@@ -2507,7 +2504,7 @@
         <v>16</v>
       </c>
       <c r="F27" t="s" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G27" s="4">
         <v>0.5714285714285714</v>
@@ -2515,22 +2512,22 @@
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="s" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C28" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="D28" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s" s="3">
         <v>103</v>
       </c>
-      <c r="D28" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E28" t="s" s="3">
-        <v>104</v>
-      </c>
       <c r="F28" t="s" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="4">
         <v>0.6571428571428571</v>
@@ -2538,13 +2535,13 @@
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="s" s="3">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s" s="3">
         <v>105</v>
       </c>
-      <c r="B29" t="s" s="3">
+      <c r="C29" t="s" s="3">
         <v>106</v>
-      </c>
-      <c r="C29" t="s" s="3">
-        <v>107</v>
       </c>
       <c r="D29" t="s" s="3">
         <v>10</v>
@@ -2561,22 +2558,22 @@
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="s" s="3">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s" s="3">
         <v>108</v>
       </c>
-      <c r="B30" t="s" s="3">
-        <v>106</v>
-      </c>
-      <c r="C30" t="s" s="3">
-        <v>109</v>
-      </c>
       <c r="D30" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E30" t="s" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G30" s="4">
         <v>0.6571428571428571</v>
@@ -2584,19 +2581,19 @@
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s" s="3">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s" s="3">
         <v>19</v>
       </c>
       <c r="C31" t="s" s="3">
+        <v>110</v>
+      </c>
+      <c r="D31" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s" s="3">
         <v>111</v>
-      </c>
-      <c r="D31" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s" s="3">
-        <v>112</v>
       </c>
       <c r="F31" t="s" s="3">
         <v>31</v>
@@ -2607,13 +2604,13 @@
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="3">
+        <v>112</v>
+      </c>
+      <c r="B32" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s" s="3">
         <v>113</v>
-      </c>
-      <c r="B32" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="C32" t="s" s="3">
-        <v>114</v>
       </c>
       <c r="D32" t="s" s="3">
         <v>21</v>
@@ -2630,19 +2627,19 @@
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="s" s="3">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s" s="3">
         <v>115</v>
       </c>
-      <c r="B33" t="s" s="3">
-        <v>89</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>116</v>
-      </c>
       <c r="D33" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E33" t="s" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s" s="3">
         <v>12</v>
@@ -2653,13 +2650,13 @@
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="s" s="3">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s" s="3">
         <v>10</v>
@@ -2668,7 +2665,7 @@
         <v>11</v>
       </c>
       <c r="F34" t="s" s="3">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G34" s="4">
         <v>0.5428571428571428</v>
@@ -2676,11 +2673,11 @@
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="s" s="3">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" t="s" s="3">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s" s="3">
         <v>21</v>
@@ -2697,19 +2694,19 @@
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="s" s="3">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C36" t="s" s="3">
+        <v>122</v>
+      </c>
+      <c r="D36" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s" s="3">
         <v>123</v>
-      </c>
-      <c r="D36" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s" s="3">
-        <v>124</v>
       </c>
       <c r="F36" t="s" s="3">
         <v>31</v>
@@ -2720,13 +2717,13 @@
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="s" s="3">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s" s="3">
         <v>125</v>
-      </c>
-      <c r="B37" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s" s="3">
-        <v>126</v>
       </c>
       <c r="D37" t="s" s="3">
         <v>10</v>
@@ -2735,7 +2732,7 @@
         <v>30</v>
       </c>
       <c r="F37" t="s" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="4">
         <v>0.4</v>
@@ -2743,22 +2740,22 @@
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="s" s="3">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s" s="3">
         <v>127</v>
       </c>
-      <c r="B38" t="s" s="3">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s" s="3">
+      <c r="D38" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="D38" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E38" t="s" s="3">
-        <v>129</v>
-      </c>
-      <c r="F38" t="s" s="3">
-        <v>34</v>
+      <c r="F38" s="4">
+        <v>0</v>
       </c>
       <c r="G38" s="4">
         <v>0.6571428571428571</v>
@@ -2766,22 +2763,22 @@
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="s" s="3">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s" s="3">
         <v>130</v>
       </c>
-      <c r="B39" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s" s="3">
-        <v>131</v>
-      </c>
       <c r="D39" t="s" s="3">
         <v>21</v>
       </c>
       <c r="E39" t="s" s="3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G39" s="4">
         <v>0.6571428571428571</v>
@@ -2789,22 +2786,22 @@
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="s" s="3">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s" s="3">
         <v>132</v>
       </c>
-      <c r="B40" t="s" s="3">
+      <c r="C40" t="s" s="3">
         <v>133</v>
       </c>
-      <c r="C40" t="s" s="3">
-        <v>134</v>
-      </c>
       <c r="D40" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E40" t="s" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s" s="3">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G40" s="4">
         <v>0.6571428571428571</v>
@@ -2812,22 +2809,22 @@
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="s" s="3">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s" s="3">
         <v>135</v>
       </c>
-      <c r="B41" t="s" s="3">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s" s="3">
-        <v>136</v>
-      </c>
       <c r="D41" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E41" t="s" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" s="4">
         <v>0.6571428571428571</v>
@@ -2835,22 +2832,22 @@
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="s" s="3">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s" s="3">
         <v>14</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s" s="3">
         <v>21</v>
       </c>
       <c r="E42" t="s" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" t="s" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" s="4">
         <v>0.6571428571428571</v>
@@ -2858,20 +2855,20 @@
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="s" s="3">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" t="s" s="3">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E43" t="s" s="3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G43" s="4">
         <v>0.6571428571428571</v>
@@ -2879,19 +2876,19 @@
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="s" s="3">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s" s="3">
         <v>140</v>
       </c>
-      <c r="B44" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="C44" t="s" s="3">
-        <v>141</v>
-      </c>
       <c r="D44" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E44" t="s" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s" s="3">
         <v>23</v>
@@ -2902,22 +2899,22 @@
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="s" s="3">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C45" t="s" s="3">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s" s="3">
         <v>21</v>
       </c>
       <c r="E45" t="s" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="4">
         <v>0.6</v>
@@ -2925,22 +2922,22 @@
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="s" s="3">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E46" t="s" s="3">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F46" t="s" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G46" s="4">
         <v>0.6571428571428571</v>
@@ -2948,13 +2945,13 @@
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="s" s="3">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s" s="3">
         <v>8</v>
       </c>
       <c r="C47" t="s" s="3">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s" s="3">
         <v>21</v>
@@ -2963,7 +2960,7 @@
         <v>11</v>
       </c>
       <c r="F47" t="s" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G47" s="4">
         <v>0.6</v>
@@ -2971,19 +2968,19 @@
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="s" s="3">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s" s="3">
         <v>8</v>
       </c>
       <c r="C48" t="s" s="3">
+        <v>148</v>
+      </c>
+      <c r="D48" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s" s="3">
         <v>149</v>
-      </c>
-      <c r="D48" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E48" t="s" s="3">
-        <v>150</v>
       </c>
       <c r="F48" t="s" s="3">
         <v>12</v>
@@ -2994,13 +2991,13 @@
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="s" s="3">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s" s="3">
         <v>10</v>
@@ -3009,7 +3006,7 @@
         <v>30</v>
       </c>
       <c r="F49" t="s" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="4">
         <v>0.6571428571428571</v>
@@ -3017,13 +3014,13 @@
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="s" s="3">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" t="s" s="3">
         <v>21</v>
@@ -3032,7 +3029,7 @@
         <v>16</v>
       </c>
       <c r="F50" t="s" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G50" s="4">
         <v>0.6571428571428571</v>
@@ -3040,19 +3037,19 @@
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="s" s="3">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s" s="3">
         <v>156</v>
       </c>
-      <c r="B51" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="C51" t="s" s="3">
-        <v>157</v>
-      </c>
       <c r="D51" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E51" t="s" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s" s="3">
         <v>31</v>
@@ -3063,22 +3060,22 @@
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="s" s="3">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s" s="3">
         <v>28</v>
       </c>
       <c r="C52" t="s" s="3">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E52" t="s" s="3">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F52" t="s" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G52" s="4">
         <v>0.6571428571428571</v>
@@ -3086,22 +3083,22 @@
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="s" s="3">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="C53" t="s" s="3">
         <v>159</v>
       </c>
-      <c r="B53" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="C53" t="s" s="3">
+      <c r="D53" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="F53" t="s" s="3">
         <v>160</v>
-      </c>
-      <c r="D53" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E53" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="F53" t="s" s="3">
-        <v>161</v>
       </c>
       <c r="G53" s="4">
         <v>0.6571428571428571</v>
@@ -3109,13 +3106,13 @@
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="s" s="3">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B54" t="s" s="3">
         <v>14</v>
       </c>
       <c r="C54" t="s" s="3">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" t="s" s="3">
         <v>10</v>
@@ -3124,7 +3121,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="s" s="3">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G54" s="4">
         <v>0.4</v>
@@ -3132,19 +3129,19 @@
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="s" s="3">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s" s="3">
         <v>28</v>
       </c>
       <c r="C55" t="s" s="3">
+        <v>165</v>
+      </c>
+      <c r="D55" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s" s="3">
         <v>166</v>
-      </c>
-      <c r="D55" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="E55" t="s" s="3">
-        <v>167</v>
       </c>
       <c r="F55" t="s" s="3">
         <v>23</v>
@@ -3155,22 +3152,22 @@
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="s" s="3">
+        <v>167</v>
+      </c>
+      <c r="B56" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="B56" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="C56" t="s" s="3">
-        <v>169</v>
-      </c>
       <c r="D56" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E56" t="s" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F56" t="s" s="3">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G56" s="4">
         <v>0.6571428571428571</v>
@@ -3178,22 +3175,22 @@
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="s" s="3">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B57" t="s" s="3">
         <v>8</v>
       </c>
       <c r="C57" t="s" s="3">
+        <v>170</v>
+      </c>
+      <c r="D57" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s" s="3">
         <v>171</v>
       </c>
-      <c r="D57" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="E57" t="s" s="3">
-        <v>172</v>
-      </c>
       <c r="F57" t="s" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="4">
         <v>0.5428571428571428</v>
@@ -3201,19 +3198,19 @@
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="s" s="3">
+        <v>172</v>
+      </c>
+      <c r="B58" t="s" s="3">
         <v>173</v>
       </c>
-      <c r="B58" t="s" s="3">
+      <c r="C58" t="s" s="3">
         <v>174</v>
       </c>
-      <c r="C58" t="s" s="3">
-        <v>175</v>
-      </c>
       <c r="D58" t="s" s="3">
         <v>21</v>
       </c>
       <c r="E58" t="s" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F58" t="s" s="3">
         <v>23</v>
@@ -3224,22 +3221,22 @@
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="s" s="3">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s" s="3">
         <v>19</v>
       </c>
       <c r="C59" t="s" s="3">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E59" t="s" s="3">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59" s="4">
         <v>0.5428571428571428</v>
@@ -3247,22 +3244,22 @@
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="s" s="3">
+        <v>177</v>
+      </c>
+      <c r="B60" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s" s="3">
         <v>178</v>
       </c>
-      <c r="B60" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="C60" t="s" s="3">
-        <v>179</v>
-      </c>
       <c r="D60" t="s" s="3">
         <v>21</v>
       </c>
       <c r="E60" t="s" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G60" s="4">
         <v>0.7142857142857143</v>
@@ -3270,22 +3267,22 @@
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="s" s="3">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C61" t="s" s="3">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E61" t="s" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G61" s="4">
         <v>0.7142857142857143</v>
@@ -3293,13 +3290,13 @@
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="s" s="3">
+        <v>181</v>
+      </c>
+      <c r="B62" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s" s="3">
         <v>182</v>
-      </c>
-      <c r="B62" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="C62" t="s" s="3">
-        <v>183</v>
       </c>
       <c r="D62" t="s" s="3">
         <v>21</v>
@@ -3308,7 +3305,7 @@
         <v>11</v>
       </c>
       <c r="F62" t="s" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G62" s="4">
         <v>0.6571428571428571</v>
@@ -3316,19 +3313,19 @@
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="s" s="3">
+        <v>183</v>
+      </c>
+      <c r="B63" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="C63" t="s" s="3">
         <v>184</v>
       </c>
-      <c r="B63" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="C63" t="s" s="3">
-        <v>185</v>
-      </c>
       <c r="D63" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E63" t="s" s="3">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s" s="3">
         <v>23</v>
@@ -3339,22 +3336,22 @@
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="s" s="3">
+        <v>185</v>
+      </c>
+      <c r="B64" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s" s="3">
         <v>186</v>
       </c>
-      <c r="B64" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="C64" t="s" s="3">
-        <v>187</v>
-      </c>
       <c r="D64" t="s" s="3">
         <v>21</v>
       </c>
       <c r="E64" t="s" s="3">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F64" t="s" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="4">
         <v>0.6571428571428571</v>
@@ -3362,22 +3359,22 @@
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="s" s="3">
+        <v>187</v>
+      </c>
+      <c r="B65" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s" s="3">
         <v>188</v>
       </c>
-      <c r="B65" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="C65" t="s" s="3">
+      <c r="D65" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="F65" t="s" s="3">
         <v>189</v>
-      </c>
-      <c r="D65" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E65" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="F65" t="s" s="3">
-        <v>190</v>
       </c>
       <c r="G65" s="4">
         <v>0.6571428571428571</v>
@@ -3385,13 +3382,13 @@
     </row>
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="s" s="3">
+        <v>190</v>
+      </c>
+      <c r="B66" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s" s="3">
         <v>191</v>
-      </c>
-      <c r="B66" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="C66" t="s" s="3">
-        <v>192</v>
       </c>
       <c r="D66" t="s" s="3">
         <v>21</v>
@@ -3400,7 +3397,7 @@
         <v>30</v>
       </c>
       <c r="F66" t="s" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G66" s="4">
         <v>0.5428571428571428</v>
@@ -3408,13 +3405,13 @@
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="s" s="3">
+        <v>192</v>
+      </c>
+      <c r="B67" t="s" s="3">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s" s="3">
         <v>193</v>
-      </c>
-      <c r="B67" t="s" s="3">
-        <v>133</v>
-      </c>
-      <c r="C67" t="s" s="3">
-        <v>194</v>
       </c>
       <c r="D67" t="s" s="3">
         <v>21</v>
@@ -3431,13 +3428,13 @@
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="s" s="3">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B68" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C68" t="s" s="3">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" t="s" s="3">
         <v>21</v>
@@ -3446,7 +3443,7 @@
         <v>16</v>
       </c>
       <c r="F68" t="s" s="3">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G68" s="4">
         <v>0.6571428571428571</v>
@@ -3454,22 +3451,22 @@
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="s" s="3">
+        <v>197</v>
+      </c>
+      <c r="B69" t="s" s="3">
+        <v>82</v>
+      </c>
+      <c r="C69" t="s" s="3">
         <v>198</v>
       </c>
-      <c r="B69" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="C69" t="s" s="3">
-        <v>199</v>
-      </c>
       <c r="D69" t="s" s="3">
         <v>21</v>
       </c>
       <c r="E69" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="F69" t="s" s="3">
-        <v>34</v>
+        <v>66</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
       </c>
       <c r="G69" s="4">
         <v>0</v>
@@ -3477,22 +3474,22 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="s" s="3">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C70" t="s" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E70" t="s" s="3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G70" s="4">
         <v>0.5428571428571428</v>
@@ -3500,19 +3497,19 @@
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="s" s="3">
+        <v>201</v>
+      </c>
+      <c r="B71" t="s" s="3">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s" s="3">
         <v>202</v>
       </c>
-      <c r="B71" t="s" s="3">
-        <v>69</v>
-      </c>
-      <c r="C71" t="s" s="3">
-        <v>203</v>
-      </c>
       <c r="D71" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E71" t="s" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F71" t="s" s="3">
         <v>12</v>
@@ -3523,22 +3520,22 @@
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="s" s="3">
+        <v>203</v>
+      </c>
+      <c r="B72" t="s" s="3">
+        <v>173</v>
+      </c>
+      <c r="C72" t="s" s="3">
         <v>204</v>
       </c>
-      <c r="B72" t="s" s="3">
-        <v>174</v>
-      </c>
-      <c r="C72" t="s" s="3">
-        <v>205</v>
-      </c>
       <c r="D72" t="s" s="3">
         <v>10</v>
       </c>
       <c r="E72" t="s" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F72" t="s" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G72" s="4">
         <v>0.6571428571428571</v>
@@ -3546,19 +3543,19 @@
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="s" s="3">
+        <v>205</v>
+      </c>
+      <c r="B73" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s" s="3">
         <v>206</v>
       </c>
-      <c r="B73" t="s" s="3">
-        <v>36</v>
-      </c>
-      <c r="C73" t="s" s="3">
-        <v>207</v>
-      </c>
       <c r="D73" t="s" s="3">
         <v>21</v>
       </c>
       <c r="E73" t="s" s="3">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F73" t="s" s="3">
         <v>31</v>
@@ -3569,22 +3566,22 @@
     </row>
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="s" s="3">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s" s="3">
         <v>25</v>
       </c>
       <c r="C74" t="s" s="3">
+        <v>208</v>
+      </c>
+      <c r="D74" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s" s="3">
         <v>209</v>
       </c>
-      <c r="D74" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="E74" t="s" s="3">
-        <v>210</v>
-      </c>
       <c r="F74" t="s" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G74" s="4">
         <v>0.5142857142857142</v>
@@ -3592,22 +3589,22 @@
     </row>
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="s" s="3">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B75" t="s" s="3">
         <v>19</v>
       </c>
       <c r="C75" t="s" s="3">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="E75" t="s" s="3">
-        <v>34</v>
+      <c r="E75" s="4">
+        <v>0</v>
       </c>
       <c r="F75" t="s" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G75" s="4">
         <v>0.6571428571428571</v>
@@ -3615,13 +3612,13 @@
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="s" s="3">
+        <v>212</v>
+      </c>
+      <c r="B76" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="C76" t="s" s="3">
         <v>213</v>
-      </c>
-      <c r="B76" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="C76" t="s" s="3">
-        <v>214</v>
       </c>
       <c r="D76" t="s" s="3">
         <v>10</v>
@@ -3630,7 +3627,7 @@
         <v>11</v>
       </c>
       <c r="F76" t="s" s="3">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G76" s="4">
         <v>0.6</v>
@@ -3638,22 +3635,22 @@
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="s" s="3">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B77" t="s" s="3">
         <v>19</v>
       </c>
       <c r="C77" t="s" s="3">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D77" t="s" s="3">
         <v>21</v>
       </c>
       <c r="E77" t="s" s="3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F77" t="s" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G77" s="4">
         <v>0.6571428571428571</v>
@@ -3661,19 +3658,19 @@
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="s" s="3">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B78" t="s" s="3">
         <v>19</v>
       </c>
       <c r="C78" t="s" s="3">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" t="s" s="3">
         <v>21</v>
       </c>
       <c r="E78" t="s" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F78" t="s" s="3">
         <v>17</v>
@@ -3684,22 +3681,22 @@
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="s" s="3">
+        <v>218</v>
+      </c>
+      <c r="B79" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="C79" t="s" s="3">
         <v>219</v>
       </c>
-      <c r="B79" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="C79" t="s" s="3">
-        <v>220</v>
-      </c>
       <c r="D79" t="s" s="3">
         <v>21</v>
       </c>
       <c r="E79" t="s" s="3">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F79" t="s" s="3">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G79" s="4">
         <v>0.6571428571428571</v>
@@ -3707,13 +3704,13 @@
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="s" s="3">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B80" t="s" s="3">
         <v>14</v>
       </c>
       <c r="C80" t="s" s="3">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" t="s" s="3">
         <v>10</v>
@@ -3722,7 +3719,7 @@
         <v>22</v>
       </c>
       <c r="F80" t="s" s="3">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G80" s="4">
         <v>0.6571428571428571</v>
